--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,39 +733,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24318</t>
+          <t>24351</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aashka Pratap</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+          <t>Saurabh Kumar Singh</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>00:03:39</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>24351</t>
+          <t>24304</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Saurabh Kumar Singh</t>
+          <t>Aftab Khan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -776,19 +772,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00:03:39</t>
+          <t>00:37:45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24304</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aftab Khan</t>
+          <t>Pawan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -799,19 +795,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00:37:45</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>1234567</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pawan</t>
+          <t>Saransh</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -821,29 +817,6 @@
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1234567</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Saransh</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>A</t>
         </is>
